--- a/biology/Botanique/Maackia_amurensis/Maackia_amurensis.xlsx
+++ b/biology/Botanique/Maackia_amurensis/Maackia_amurensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maackie de l’Amur (Maackia amurensis syn. Cladrastis amurensis) est une espèce d'arbre originaire de l'est de l'Asie, de la famille des Fabacées, sous-famille des Faboideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Découvert par Richard Maack sur les rives du fleuve Amur, c’est le botaniste Maximowicz qui le cultive en 1864 dans le Jardin botanique de Saint-Pétersbourg. C'est de là qu'il fut introduit vers l'Europe Occidentale.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce aime les sols bien drainés et les endroits ensoleillés mais craint toutefois les sols trop secs.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un petit arbre à feuillage caduc, à port arrondi légèrement aplati sur le dessus, poussant à une hauteur variant entre 6 et 12 m, avec un tronc bas et droit, dont l’écorce de couleur brun ambré se détache par petites plaques en vieillissant.
 Les jeunes pousses grisâtres forment assez vite un entrelacs de branches épineuses.
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa rusticité mais aussi la beauté et le parfum de ses fleurs en font un arbre pouvant être planté en sujet isolé dans les parcs. Il peut être aussi utilisé comme arbre d’alignement le long des routes.
 </t>
